--- a/data/evaluation/evaluation_North_Summer_Eggplants.xlsx
+++ b/data/evaluation/evaluation_North_Summer_Eggplants.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3613.164312617907</v>
+        <v>3632.86974856388</v>
       </c>
       <c r="C4" t="n">
-        <v>19456647.36717133</v>
+        <v>19702321.85339217</v>
       </c>
       <c r="D4" t="n">
-        <v>4410.968982794067</v>
+        <v>4438.729756742594</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06102391904577109</v>
+        <v>0.04916769007123001</v>
       </c>
     </row>
     <row r="5">
